--- a/courses.xlsx
+++ b/courses.xlsx
@@ -5,22 +5,25 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\tools\Purdue\plan_of_study_LDT_Purdue_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://purdue0-my.sharepoint.com/personal/kang567_purdue_edu/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A9580335-1B4B-40B3-B7EE-4EFEBCA239E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="331" documentId="8_{B406C9A6-066D-430D-AE49-66B254A7A672}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AA83F43B-A79E-4960-B518-B410E8B543E1}"/>
   <bookViews>
-    <workbookView xWindow="28245" yWindow="-20955" windowWidth="16500" windowHeight="19530" xr2:uid="{86F85DA8-8163-4CB9-8CAE-7F29E44274A8}"/>
+    <workbookView xWindow="5970" yWindow="-20775" windowWidth="26070" windowHeight="19530" xr2:uid="{86F85DA8-8163-4CB9-8CAE-7F29E44274A8}"/>
   </bookViews>
   <sheets>
     <sheet name="courses" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">courses!$A$1:$F$39</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="200">
   <si>
     <t>Code</t>
   </si>
@@ -46,18 +49,12 @@
     <t>C&amp;I Department Seminars</t>
   </si>
   <si>
-    <t>Fall semester C&amp;I requirement.</t>
-  </si>
-  <si>
     <t>EDCI 63800</t>
   </si>
   <si>
     <t>Curriculum and Instruction Seminar II</t>
   </si>
   <si>
-    <t>Spring semester C&amp;I requirement.</t>
-  </si>
-  <si>
     <t>EDCI 66000</t>
   </si>
   <si>
@@ -67,27 +64,18 @@
     <t>Core Ph.D. LDT Requirements</t>
   </si>
   <si>
-    <t>Core LDT seminar.</t>
-  </si>
-  <si>
     <t>EDCI 62700</t>
   </si>
   <si>
     <t>Critical Readings and Research in LDT</t>
   </si>
   <si>
-    <t>F2025 new requirement. Sub for EDPS 53300.</t>
-  </si>
-  <si>
     <t>EDCI 67600</t>
   </si>
   <si>
     <t>Writing Literature Reviews</t>
   </si>
   <si>
-    <t>Part of the LDT writing sequence.</t>
-  </si>
-  <si>
     <t>EDCI 67700</t>
   </si>
   <si>
@@ -112,9 +100,6 @@
     <t>Advanced Instructional Development and Systems Technology</t>
   </si>
   <si>
-    <t>Core LDT requirement.</t>
-  </si>
-  <si>
     <t>EDCI 67300</t>
   </si>
   <si>
@@ -133,30 +118,18 @@
     <t>Internship in Learning Design and Technology</t>
   </si>
   <si>
-    <t>Core LDT internship. Credits can be 3+.</t>
-  </si>
-  <si>
     <t>EDCI 51300</t>
   </si>
   <si>
     <t>Foundations of Ed Tech</t>
   </si>
   <si>
-    <t>LDT Prerequisites</t>
-  </si>
-  <si>
-    <t>Intro to Learning Design and Technology.</t>
-  </si>
-  <si>
     <t>EDCI 57200</t>
   </si>
   <si>
     <t>Learning Systems Design</t>
   </si>
   <si>
-    <t>Prerequisite course.</t>
-  </si>
-  <si>
     <t>EDCI 53100</t>
   </si>
   <si>
@@ -166,39 +139,21 @@
     <t>EDPS 53300</t>
   </si>
   <si>
-    <t>Introduction to Educational Research</t>
-  </si>
-  <si>
     <t>Educational Research - General</t>
   </si>
   <si>
-    <t>Intro research course.</t>
-  </si>
-  <si>
     <t>EDPS 63000</t>
   </si>
   <si>
     <t>Research Procedures in Education</t>
   </si>
   <si>
-    <t>Required research seminar.</t>
-  </si>
-  <si>
     <t>EDPS 55600</t>
   </si>
   <si>
     <t>Introductory Statistics In Educational Research</t>
   </si>
   <si>
-    <t>Educational Research - Statistics</t>
-  </si>
-  <si>
-    <t>Choose one introductory statistics course.</t>
-  </si>
-  <si>
-    <t>STAT 50111</t>
-  </si>
-  <si>
     <t>Experimental Statistics I</t>
   </si>
   <si>
@@ -211,18 +166,12 @@
     <t>SOC 58100</t>
   </si>
   <si>
-    <t>Social Research Methods</t>
-  </si>
-  <si>
     <t>EDPS 55700</t>
   </si>
   <si>
     <t>Educational Measurement</t>
   </si>
   <si>
-    <t>Advanced quantitative elective.</t>
-  </si>
-  <si>
     <t>STAT 51200</t>
   </si>
   <si>
@@ -238,18 +187,12 @@
     <t>Educational Research - Qualitative</t>
   </si>
   <si>
-    <t>Required qualitative methods course.</t>
-  </si>
-  <si>
     <t>EDCI 61600</t>
   </si>
   <si>
     <t>Advanced Qualitative Research</t>
   </si>
   <si>
-    <t>Advanced qualitative elective.</t>
-  </si>
-  <si>
     <t>EDCI 55201</t>
   </si>
   <si>
@@ -259,9 +202,6 @@
     <t>LDT Electives - Design</t>
   </si>
   <si>
-    <t>Design elective.</t>
-  </si>
-  <si>
     <t>EDCI 55600</t>
   </si>
   <si>
@@ -289,9 +229,6 @@
     <t>LDT Electives - Development</t>
   </si>
   <si>
-    <t>Development elective.</t>
-  </si>
-  <si>
     <t>EDCI 56600</t>
   </si>
   <si>
@@ -325,9 +262,6 @@
     <t>LDT Electives - Workplace Learning</t>
   </si>
   <si>
-    <t>Workplace Learning elective.</t>
-  </si>
-  <si>
     <t>EDCI 57700</t>
   </si>
   <si>
@@ -338,6 +272,357 @@
   </si>
   <si>
     <t>Instructional Design Project Management</t>
+  </si>
+  <si>
+    <t>#</t>
+  </si>
+  <si>
+    <t>LDT Electives - Educational Foundations</t>
+  </si>
+  <si>
+    <t>EDCI 56500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Principles of Adult Education </t>
+  </si>
+  <si>
+    <t>EDPS 53000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Advanced Educational Psychology </t>
+  </si>
+  <si>
+    <t>EDCI 58500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Multicultural Education </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Introduction to Educational Research  </t>
+  </si>
+  <si>
+    <t>Introduction to Measurement and Instrument Design</t>
+  </si>
+  <si>
+    <t>EDPS 53100</t>
+  </si>
+  <si>
+    <t>EDCI 56000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Educational Technology for Teaching and Learning </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Current Topics in Learning Design and Technology </t>
+  </si>
+  <si>
+    <t>Prerequisites</t>
+  </si>
+  <si>
+    <t>Introduction To Educational Research I: Methodology</t>
+  </si>
+  <si>
+    <t>STAT 50100</t>
+  </si>
+  <si>
+    <t>SOC 58000</t>
+  </si>
+  <si>
+    <t>SOC 58300</t>
+  </si>
+  <si>
+    <t>PSY 50000</t>
+  </si>
+  <si>
+    <t>PSY 68000</t>
+  </si>
+  <si>
+    <t>COM 58200</t>
+  </si>
+  <si>
+    <t>SOC 68600</t>
+  </si>
+  <si>
+    <t>ANTH 60500</t>
+  </si>
+  <si>
+    <t>TECH 69700</t>
+  </si>
+  <si>
+    <t>COM 58500</t>
+  </si>
+  <si>
+    <t>EDCI 684</t>
+  </si>
+  <si>
+    <t>STAT 50200</t>
+  </si>
+  <si>
+    <t>PSY 60100</t>
+  </si>
+  <si>
+    <t>PSY 60500</t>
+  </si>
+  <si>
+    <t>PSY 61000</t>
+  </si>
+  <si>
+    <t>SOC 68000</t>
+  </si>
+  <si>
+    <t>HDFS 62700</t>
+  </si>
+  <si>
+    <t>EDCI 69900</t>
+  </si>
+  <si>
+    <t>Research PhD Thesis</t>
+  </si>
+  <si>
+    <t>Dissertation Research</t>
+  </si>
+  <si>
+    <t>Educational Research - Intro</t>
+  </si>
+  <si>
+    <t>Educational Research - Advanced</t>
+  </si>
+  <si>
+    <t>Methods Of Social Research I</t>
+  </si>
+  <si>
+    <t>Application Of Social Research Methods</t>
+  </si>
+  <si>
+    <t>Statistical Methods Applied To Psychology, Education, And Sociology</t>
+  </si>
+  <si>
+    <t>Survey Of Industrial/Organizational Psychology</t>
+  </si>
+  <si>
+    <t>Qualitative Methods</t>
+  </si>
+  <si>
+    <t>Seminar In Ethnographic Analysis</t>
+  </si>
+  <si>
+    <t>Qualitative Research Methods In Technology Studies</t>
+  </si>
+  <si>
+    <t>Qualitative Methods In Communication Research</t>
+  </si>
+  <si>
+    <t>Rural Ed: Community, Culture</t>
+  </si>
+  <si>
+    <t>Experimental Statistics II</t>
+  </si>
+  <si>
+    <t>Correlation And Experimental Design</t>
+  </si>
+  <si>
+    <t>Applied Multivariate Analysis</t>
+  </si>
+  <si>
+    <t>Multivariate Analysis In The Behavioral Sciences</t>
+  </si>
+  <si>
+    <t>Advanced Social Research Methods</t>
+  </si>
+  <si>
+    <t>Multilevel Modeling In Developmental And Family Research</t>
+  </si>
+  <si>
+    <t>Descriptive/Experimental Research In Communication</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>Provides an historical overview of the field and delineates the foundational knowledge, skills, and attitudes needed by professionals in the field of educational technology and instructional design. Students explore the field by engaging in collaborative projects, along with thinking and writing about various aspects of educational technology and the underlying instructional design theories. Typically offered Summer Fall Spring.</t>
+  </si>
+  <si>
+    <t>An introduction to the principles of designing instructional materials and to instructional communication theory and techniques. Topics include objectives, student characteristics, media selection, communication variables, message design, and systematic evaluation. Typically offered Fall Spring Summer.</t>
+  </si>
+  <si>
+    <t>This course has been designed to help you learn how theories of human learning and motivation can be applied to the instructional process in order to make the process more effective, efficient, and/or appealing. The focus of the course is on two areas: 1) the theoretical principles that have contributed to the field of Instructional Design (ID), and 2) how those principles can be applied within practical settings. Typically offered Fall Spring Summer.</t>
+  </si>
+  <si>
+    <t>This course presents a sequence of journal articles and exercises that help introduce the foundational concepts of the course, including: research design, reliability and validity, various methodologies commonly used in educational research, and basic quantitative and qualitative data analyses. In addition, contrasting research conclusions are shown in the articles to help students learn why careful analysis of articles and their theoretical framing is critical to evaluating their conclusions. Typically offered Fall Spring Summer.</t>
+  </si>
+  <si>
+    <t>An examination of current issues and concerns related to doctoral study in Curriculum and Instruction. This course is intended for all new doctoral students in the Department of Curriculum and Instruction and should be taken within the first year of doctoral study. Typically offered Fall.</t>
+  </si>
+  <si>
+    <t>This course consists of an examination of current educational research. EDCI and other faculty will present and lead discussions of their research. Students will be exposed to research within multiple paradigms and perspectives. This course is intended for all new doctoral students in the Department of Curriculum and Instruction and should be taken within the first year to doctoral study. Permission of instructor required. Typically offered Spring.</t>
+  </si>
+  <si>
+    <t>This course is an investigation of trends, developments, and issues in learning design and technology with a focus on current practices, problems, and research. This one-credit seminar is designed to help students learn about applications of instructional design and educational technology in various settings and to interact with faculty and guest speakers about topics related to the field and the LDT program.</t>
+  </si>
+  <si>
+    <t>A critical analysis of problems, trends, issues, and programs related to the area of learning design and technology. Prerequisite: EDCI 51300.</t>
+  </si>
+  <si>
+    <t>This course is designed to introduce the learner to the process of analyzing and preparing literature reviews on topics relevant to the field of Learning Design and Technology. Emphasis is placed on helping the learner to understand, critique, and synthesize the research literature in order to apply it to their own personal research agenda. Course activities and assignments are designed to help the learner develop the knowledge, tools, and strategies needed to become thoughtful consumers and producers of research and to use this knowledge to inform their practice. Learning experiences revolve around two major themes: 1) the examination and thoughtful critique of current research and 2) preparation of a thorough literature review that provides a rationale for continued study. Permission of instructor required.</t>
+  </si>
+  <si>
+    <t>This course is designed to introduce the novice researcher to the process of developing a research problem statement supported by literature resulting in a professional organization conference proposal and a proposal for a funding agency in the field of Learning Design and Technology. Permission of instructor required. Prerequisite: EDCI 67600.</t>
+  </si>
+  <si>
+    <t>Group study of a current problem or special topic of interest to professional educational personnel. Intensive study of research, theory, or practical aspects of a particular issue within the usual graduate class format.</t>
+  </si>
+  <si>
+    <t>This course is designed to introduce the novice researcher to the process of publishing research in the field of Learning Design and Technology. Emphasis is placed on practical aspects of the publishing process as well as familiarizing students with the role that editors and reviewers play in that process. Prerequisite courses include: EDCI 67600 Writing Literature Reviews and EDCI 67700 Writing Research Proposals. Students must bring a draft manuscript completed through the methods portion into the course, and students must have completed research and collected data to facilitate completion of a research-based manuscript for publication during the course. Permission of instructor required.</t>
+  </si>
+  <si>
+    <t>This course focuses on the application of learning systems design to real-world educational situations through the in-depth consideration of key instructional design processes (e.g., analysis, design, development, implementation, evaluation). Additionally, a key focus of the course is on the development of instructional design expertise. Prerequisite: EDCI 57200.</t>
+  </si>
+  <si>
+    <t>Provides preparation to conduct independent research in the field of learning design and technology through direct participation in the research process: critically reviewing research, designing and conducting a research study, synthesizing and presenting results in written and oral formats. Prerequisites: EDPS 53300, EDCI 67600, EDCI 67700.</t>
+  </si>
+  <si>
+    <t>Examines the impact of both psychological learning theories and instructional applications upon the development of various instructional design theories. Emphasis is on theory construction, influence of learning and educational principles, and the current and future possibilities of instructional design theory. Prerequisite: EDCI 53100 and 57200.</t>
+  </si>
+  <si>
+    <t>Amount of credit to be determined by nature and extent of the assignment. A special course in selected areas of education, designed to provide practical field experience under professional supervision in selected situations related to the candidate’s area of specialization. Permission of instructor required. Typically offered Fall Spring Summer.</t>
+  </si>
+  <si>
+    <t>1-10</t>
+  </si>
+  <si>
+    <t>Principles of adult education applied to helping adults learn, evaluating their performance, and determining their needs. Examines history, philosophy, and research of adult education. Explores techniques required in design and delivery of instruction for adults. Typically offered Spring.</t>
+  </si>
+  <si>
+    <t>Theories of learning and development, research on instruction and learning, and principles of measurement applied to educational problems. Typically offered Fall Spring Summer.</t>
+  </si>
+  <si>
+    <t>The course aims to develop understanding of multicultural education as an on-going reform process that addresses social justice issues through an examination of race, class, gender, ethnicity, language, sexual orientation, etc.</t>
+  </si>
+  <si>
+    <t>An application-oriented introduction to constructing educational and psychological tests and surveys. Class sessions include guided practice with the process of instrument development, from trait and test task domain definition, item writing and revision, and item analysis, to score interpretation and validation. Typically offered Fall Spring Summer.</t>
+  </si>
+  <si>
+    <t>This course aims to provide students with the knowledge and skills needed to understand and utilize Generative AI in education. Students will acquire fundamental coding skills and develop technical expertise in using and comprehending AI. By engaging in hands-on activities and analyzing real-world case studies, students will design and create their own AI applications using Google Teachable Machine to solve a specific problem of their choosing. Additionally, the course will examine ethical issues related to AI/GenAI, allowing students to establish guidelines for the meaningful integration of AI/GenAI in teaching and learning.</t>
+  </si>
+  <si>
+    <t>This course addresses the fundamentals of educational/learning technologies within both the traditional classroom, as well as the corporate/business training environments.  Students will explore and evaluate various tools/technologies and determine how, when, and why such technologies can/should be infused into normal, hybrid, or fully online learning situations. The goal of the course is to help the student plan, implement, and evaluate technology for teaching and learning. Typically offered Fall Spring Summer.</t>
+  </si>
+  <si>
+    <t>Designed to provide an introduction to the design of educational video games. The focus of the course is on two areas: 1) the learning, instructional design, and game design theories which can inform the design of effective and engage in educational video games, and 2) how to apply those theories within practical settings.</t>
+  </si>
+  <si>
+    <t>This course examines how the design and development of instruction are impacted by the use of the computer as delivery system. A primary focus is on effective learning design strategies for e-learning. Learners will identify and apply effective design practices with emphasis on project management, planning, and implementation. Education or training materials will be developed using appropriate authoring tools as determined by the instructional context. Learners will design an E-Learning module with end-to-end documentation of the design process (Project Plan, Design Document, Storyboard). Opportunities for collaborative feedback and evaluation will also be featured elements of the course experience.</t>
+  </si>
+  <si>
+    <t>Examines and applies the cognitive strategies and tactics that can be used by an instructional designer to improve human learning. Applications of various instructional strategies for specific cognitive tasks (e.g., concepts, mental models, problem solving) will to be covered. Additionally, best practices for a diverse range of instructional methods will be considered, as well as, the strategies for the entire instructional experience. Prerequisite: EDCI 57200. Permission of instructor required.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This course focuses on techniques for and issues related to integrating technology in learning environments in a meaningful way. Topics covered stem from literature in the field and include (1) theoretical foundations of technology integration, including how technology can support a more personalized approach to learning, (2) instructional and learning issues with technology integration, (3) designing for the integration of technologies for in learning environments, and (4) emerging issues in research and practice with technology integration. Class activities are designed to model applications of learning technology, while class projects allow individuals to develop skills and knowledge in areas of your personal need or interest. The goal of the course is to help you develop an understanding of important issues associated with the integration and management of learning technology and to effectively plan, design, implement, and evaluate technology-based learning. </t>
+  </si>
+  <si>
+    <t>Examination of educational applications of hypermedia tools and related research. Creation of hypermedia instructional materials. Incorporation of digitized media (sound, photographs, and motion clips) in hypermedia is explored.</t>
+  </si>
+  <si>
+    <t>An introduction to the field of distance learning/education.  Examination of  basic concepts and principles of distance learning, the theoretical underpinnings of the field, research and application literature, and distance education delivery technologies. Focus is on integration of distance education technologies for learning and teaching. Typically offered Fall Spring Summer.</t>
+  </si>
+  <si>
+    <t>This course has been designed to provide an in-depth study of motivation as one of the fundamental variables underlying human learning, behavior, and instructional design. The focus of the course is on two areas: 1) theories of motivation and the general principles that have contributed to the field of instructional design, and 2) how those principles are applied within practical design settings.</t>
+  </si>
+  <si>
+    <t>This course provides an introduction to the field of human performance technology (HPT). It examines basic concepts and principles of human performance, the theoretical underpinnings of the field, research and application literature, and various approaches to solving human performance problems. A systematic approach to the analysis, design, development, implementation and evaluation of performance improvement interventions within organizations is emphasized. Typically offered Fall Spring Summer.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This course explores principles and techniques that can be used to carry out evaluations within an organization. The course also examines several aspects of conducting evaluations, including planning and designing an evaluation, developing appropriate instruments, using various methods to collect information, analyzing information obtained from those methods, and communicating results and recommendations. This course is designed to help learners understand the multiple ways that evaluation is used in instructional systems and provides opportunities to design various types of evaluation instruments. A portion of the course will examine the study of learner assessment as part of the evaluation of instructional programs; however, the course’s focus is dedicated to the study of program evaluation. </t>
+  </si>
+  <si>
+    <t>This course focuses on the application of project management ideas, concepts, and strategies in instructional design settings. Students will be asked to consider the relationship between instructional design and project management, tools that can assist with managing instructional design projects, and factors influencing the instructional design project management process. Students will explore these topics by creating deliverables for instructional design cases and other interactive assignments. Typically offered Fall Spring Summer.</t>
+  </si>
+  <si>
+    <t>This online course is designed to provide an overview of introductory quantitative data analysis methods in education. The course is specially designed to enhance students’ quantitative reasoning and skills through discussions of issues in educational data and authentic data analysis experiences of a variety of education data. The topics to be covered in this course include data collection and description, sampling distributions, methods of quantitative data analysis often used in education research. Permission of instructor required. Typically offered Fall Spring Summer.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Concepts and methods of applied statistics. Exploratory analysis of data. Sample design and experimental design. Normal distributions. Sampling distributions. Confidence intervals and tests of hypotheses for one and two samples. Inference for contingency tables, regression and correlation, and one-way analysis of variance. Use of the SAS statistical software. Intended primarily for students who have not had calculus. Not open to students in mathematical sciences or engineering. For statistics majors and minors, credit should be allowed in no more than one of STAT 30100, STAT 30301, STAT 35000, STAT 35500, STAT 50100, and in no more than one of STAT 50300 and STAT 51100. Prerequisite: College Algebra. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">An intermediate-level examination of research designs, measurement, and sampling with emphasis on issues of problem formulation and the logic and application of methodological procedures. </t>
+  </si>
+  <si>
+    <t>Emphasis on statistical inference applied to sociological problems; topics include the binomial distribution and the logic of inference, one and two sample tests, confidence intervals, and chi-square. Introduction to bivariate correlation and regression, analysis of variance.</t>
+  </si>
+  <si>
+    <t>Methods of Social Research II</t>
+  </si>
+  <si>
+    <t>Specific methods of survey research, including questionnaire construction, and sampling techniques, as well as case studies and field experiments are covered. Emphasis is on the use of such methods and their implications for the nature of social data. Permission of instructor required.</t>
+  </si>
+  <si>
+    <t>Descriptive statistics and an introduction to sampling statistics. Applied to psychological, sociological, and education data. Pre-college level course work in Algebra and Number Theory. Typically offered Fall Spring Summer.</t>
+  </si>
+  <si>
+    <t>Emphasis is given to principles underlying both parametric and nonparametric inference.</t>
+  </si>
+  <si>
+    <t>This two-semester sequence extensively surveys the various areas of industrial/organizational psychology. The first semester surveys those topics generally classified as dealing with industrial psychology (e.g., selection, placement, training, performance appraisal), and the second semester surveys organizational psychology topics (e.g., job satisfaction, motivation, leadership, decision making, role making). Course provides a critical and up-to-date review of recent and classical research in these areas. Prerequisite: Any undergraduate Statistics course and any undergraduate Social Science Research Methods course.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Introduction to the fundamental tools of quantitative research in communication, including data analysis, statistical design and methods, basic measurement concepts, and designs for descriptive and experimental research. Individual and/or group research projects are planned, conducted, and reported. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Focuses on expanding graduate students’ research skills to include knowledge of the theories and methods associated with qualitative and qualitative-quantitative combined research. Prerequisite: EDPS 53300. </t>
+  </si>
+  <si>
+    <t>Surveys qualitative research methods. Considers methods of data collection and data analysis, including computer-assisted techniques. Critical examination of perspectives, assumptions, and issues, including protection of human subjects. Students conduct research projects and write papers using techniques encountered in class. Prerequisite: SOC 58000.</t>
+  </si>
+  <si>
+    <t>Focuses on ethnographic research design, methodology, and ethics, discussing the appropriate selection of any method. Students gain experience with the varieties of ethnographic practice across anthropology and sibling sciences, the generation and analysis of data, and the writing up of ethnographic and of other qualitative research.</t>
+  </si>
+  <si>
+    <t>In-depth examination of qualitative methods and frameworks used in technology research. Students learn by application a variety of methods from the qualitative research toolbox such as interviewing, focus groups, observation, and experience analysis. TECH 69700 prepares students to plan, pilot, and assess an original qualitative research study and to integrate qualitative research findings in the technology design and evaluation process. Permission of instructor required.</t>
+  </si>
+  <si>
+    <t>An introduction to qualitative research methods in communication studies. Provides students with an overview of several techniques for, and issues in, gathering, analyzing, writing-up, and using qualitative data. Department permission required.</t>
+  </si>
+  <si>
+    <t>This online course is the second quantitative data analysis methods sequences within the college of education. This course is specially designed to enhance students’ quantitative reasoning and skills through discussions of issues in educational data and authentic data analysis experiences of a variety of education data. The topics to be covered in this course include simple/multiple linear regression, different types of group comparison methods (including n-way ANOVA, ANCOVA, Repeated-measures ANOVA, and Mixed ANOVA). The course is specifically designed: 1) to understand how the quantitative methods covered in the course can be used appropriately to address proposed research questions in education, and 2) to interpret quantitative results meaningfully for a given context. It is expected that all students who enroll in this course have completed at least one semester of introductory statistics course (e.g. STAT 50100 or equivalent.) Permission of instructor required.</t>
+  </si>
+  <si>
+    <t>This course focuses on expanding students’ foundation level knowledge of qualitative research in the areas of theories, methods, analysis and interpretation, and presentation. Prerequisite: EDCI 61500. Typically offered Fall.</t>
+  </si>
+  <si>
+    <t>A course designed to allow for the in-depth exploration of specialized and timely topics in curriculum theory, practice, and reform. Though all specialized topics address both theory and practice, some topics focus more heavily on practice, and others focus more heavily on theory.</t>
+  </si>
+  <si>
+    <t>Regression with several explanatory variables. Regression diagnostics. Analysis of variance for factorial designs. Multiple comparisons. Analysis of covariance. Repeated measures designs. Extensive use of the SAS statistical software. Intended primarily for students who have not had calculus. Not open to students in mathematical sciences or engineering. Typically offered Summer Spring.</t>
+  </si>
+  <si>
+    <t>Inference in simple and multiple linear regression, residual analysis, transformations, polynomial regression, model building with real data, nonlinear regression. One-way and two-way analysis of variance, multiple comparisons, fixed and random factors, analysis of covariance. Use of existing statistical computer programs. Prerequisite: Coursework in Statistical Methods with a calculus prerequisite.</t>
+  </si>
+  <si>
+    <t>Continuation of PSY 60000 with emphasis upon the design and analysis of experiments. Prerequisite: PSY 60000.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A survey of the most frequently employed multivariate research techniques, such as multivariate generalizations of univariate tests and analysis of variance, principal components, canonical analysis, and discriminant analysis. A central theme of the course is the general linear model, both univariate and multivariate. A multipurpose program for this model provides the student with practical experience in conducting multivariate research. Some prior exposure to elementary matrix algebra is recommended. Prerequisite: PSY 60000. </t>
+  </si>
+  <si>
+    <t>This is an advanced doctoral-level statistics course that examines the application of multivariate methods to the analyses of organizational data. Topics include: matrix algebra, the general linear model, multivariate analysis of variance, canonical correlation, discriminant function analysis, and factor/component analysis. Prerequisite: Grade of B or higher in (PSY 60000 and PSY 60100) or (STAT 51200 and STAT 51400) or (HDFS 68500 and PSY 63100). Typically offered Fall Spring.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Survey analysis using regression models. Emphasizes ordinary least squares model applied to sociological problems. Also considered are path analysis and logit and logistic regression. A series of projects are required using the PUCC mainframe computer applying course concepts. Prerequisite: SOC 58100 or SOC 60000.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">This course gives students a basic grounding in the class of statistical techniques known as multilevel modeling (MLM), also known as hierarchical linear modeling (HLM), mixed models, or random coefficient models. Primary discussions will be on applications of these models to the study of marriages, relationships, families, aging, and child and adult development, but also will touch on biomedical, educational, and economic examples. The focus is on three types of multilevel models: growth-curve models, organizational models, and daily experience models. Students will also learn how to use SAS Proc Mixed for conducting MLM analyses. Students are assumed to have taken at least two graduate statistics courses and have a solid understanding of regression analysis. Prerequisites: STAT 50100 and STAT 50200 or HDFS 61300 and PSY 63100.  </t>
+  </si>
+  <si>
+    <t>Development of a philosophy of educational research and consideration of the methods for the selection and evaluation of techniques used in educational research. Techniques discussed are methods to control variables, sampling procedures, data collection procedures, statistical procedures, and research proposal development and writing. Prerequisite: EDPS 53300, (PSY 60100 or EDPS 53300), STAT 50200.</t>
+  </si>
+  <si>
+    <t>1-18</t>
+  </si>
+  <si>
+    <t>[could not find any information as of 11/19/2025]</t>
+  </si>
+  <si>
+    <t>Dissertation research. Permission of instructor required. Typically offered Fall Spring Summer.</t>
   </si>
 </sst>
 </file>
@@ -821,8 +1106,16 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1198,659 +1491,1271 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20EFC16D-C538-4710-BECD-E4D68D9B85C1}">
-  <dimension ref="A1:E38"/>
+  <dimension ref="A1:F62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D58" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="F65" sqref="F65"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="5.77734375" customWidth="1"/>
+    <col min="2" max="2" width="12.88671875" customWidth="1"/>
+    <col min="3" max="3" width="33.5546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="6.6640625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="25.88671875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="69" style="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="2" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" s="2">
+        <v>3</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" s="2">
+        <v>3</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" s="2">
+        <v>3</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D5" s="2">
+        <v>3</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A6">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C2">
+      <c r="D6" s="2">
         <v>1</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F6" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="C7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B3" t="s">
+      <c r="D7" s="2">
+        <v>1</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="72" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
         <v>10</v>
       </c>
-      <c r="C3">
+      <c r="C8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="2">
         <v>1</v>
       </c>
-      <c r="D3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="E8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="2">
+        <v>3</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="144" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="2">
+        <v>2</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="72" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="2">
+        <v>2</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A12">
         <v>11</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="B12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="2">
+        <v>2</v>
+      </c>
+      <c r="E12" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B4" t="s">
+      <c r="F12" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" s="2">
+        <v>2</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="72" x14ac:dyDescent="0.3">
+      <c r="A14">
         <v>13</v>
       </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" s="2">
+        <v>3</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="72" x14ac:dyDescent="0.3">
+      <c r="A15">
         <v>14</v>
       </c>
-      <c r="E4" t="s">
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" s="2">
+        <v>3</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="72" x14ac:dyDescent="0.3">
+      <c r="A16">
         <v>15</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="B16" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16" s="2">
+        <v>3</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="72" x14ac:dyDescent="0.3">
+      <c r="A17">
         <v>16</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B17" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A18">
         <v>17</v>
       </c>
-      <c r="C5">
-        <v>3</v>
-      </c>
-      <c r="D5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="B18" t="s">
+        <v>85</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D18" s="2">
+        <v>3</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A19">
         <v>18</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="B19" t="s">
+        <v>87</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A20">
         <v>19</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B20" t="s">
+        <v>89</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A21">
         <v>20</v>
       </c>
-      <c r="C6">
-        <v>2</v>
-      </c>
-      <c r="D6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" t="s">
+      <c r="B21" t="s">
+        <v>37</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="72" x14ac:dyDescent="0.3">
+      <c r="A22">
         <v>21</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="B22" t="s">
+        <v>93</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A23">
         <v>22</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B23" t="s">
+        <v>56</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D23" s="2">
+        <v>3</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A24">
         <v>23</v>
       </c>
-      <c r="C7">
-        <v>2</v>
-      </c>
-      <c r="D7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+      <c r="B24" t="s">
+        <v>94</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A25">
         <v>24</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B25" t="s">
+        <v>59</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D25" s="2">
+        <v>3</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A26">
         <v>25</v>
       </c>
-      <c r="C8">
-        <v>2</v>
-      </c>
-      <c r="D8" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+      <c r="B26" t="s">
+        <v>61</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D26" s="2">
+        <v>3</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A27">
         <v>26</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B27" t="s">
+        <v>13</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A28">
         <v>27</v>
       </c>
-      <c r="C9">
-        <v>2</v>
-      </c>
-      <c r="D9" t="s">
-        <v>14</v>
-      </c>
-      <c r="E9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+      <c r="B28" t="s">
+        <v>63</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D28" s="2">
+        <v>3</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="A29">
         <v>28</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B29" t="s">
+        <v>65</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D29" s="2">
+        <v>3</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A30">
         <v>29</v>
       </c>
-      <c r="C10">
-        <v>3</v>
-      </c>
-      <c r="D10" t="s">
-        <v>14</v>
-      </c>
-      <c r="E10" t="s">
+      <c r="B30" t="s">
+        <v>68</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D30" s="2">
+        <v>3</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="72" x14ac:dyDescent="0.3">
+      <c r="A31">
         <v>30</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+      <c r="B31" t="s">
+        <v>70</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D31" s="2">
+        <v>3</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="72" x14ac:dyDescent="0.3">
+      <c r="A32">
         <v>31</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B32" t="s">
+        <v>72</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D32" s="2">
+        <v>3</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33">
         <v>32</v>
       </c>
-      <c r="C11">
-        <v>3</v>
-      </c>
-      <c r="D11" t="s">
-        <v>14</v>
-      </c>
-      <c r="E11" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+      <c r="B33" t="s">
+        <v>74</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D33" s="2">
+        <v>3</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A34">
         <v>33</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B34" t="s">
+        <v>76</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D34" s="2">
+        <v>3</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="144" x14ac:dyDescent="0.3">
+      <c r="A35">
         <v>34</v>
       </c>
-      <c r="C12">
-        <v>3</v>
-      </c>
-      <c r="D12" t="s">
-        <v>14</v>
-      </c>
-      <c r="E12" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+      <c r="B35" t="s">
+        <v>79</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D35" s="2">
+        <v>3</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A36">
         <v>35</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B36" t="s">
+        <v>81</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D36" s="2">
+        <v>3</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A37">
         <v>36</v>
       </c>
-      <c r="C13">
-        <v>3</v>
-      </c>
-      <c r="D13" t="s">
-        <v>14</v>
-      </c>
-      <c r="E13" t="s">
+      <c r="B37" t="s">
+        <v>41</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D37" s="2">
+        <v>3</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A38">
         <v>37</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
+      <c r="B38" t="s">
+        <v>99</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D38" s="2">
+        <v>3</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A39">
         <v>38</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B39" t="s">
+        <v>100</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A40">
         <v>39</v>
       </c>
-      <c r="C14">
-        <v>3</v>
-      </c>
-      <c r="D14" t="s">
+      <c r="B40" t="s">
+        <v>46</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="D40" s="2">
+        <v>3</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A41">
         <v>40</v>
       </c>
-      <c r="E14" t="s">
+      <c r="B41" t="s">
+        <v>101</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A42">
         <v>41</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
+      <c r="B42" t="s">
+        <v>102</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A43">
         <v>42</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B43" t="s">
+        <v>44</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D43" s="2">
+        <v>3</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A44">
         <v>43</v>
       </c>
-      <c r="C15">
-        <v>3</v>
-      </c>
-      <c r="D15" t="s">
+      <c r="B44" t="s">
+        <v>103</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" t="s">
+        <v>104</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46" t="s">
+        <v>51</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D46" s="2">
+        <v>3</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="72" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47" t="s">
+        <v>105</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48" t="s">
+        <v>106</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49" t="s">
+        <v>107</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50" t="s">
+        <v>108</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="187.2" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51" t="s">
+        <v>47</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D51" s="2">
+        <v>3</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52" t="s">
+        <v>54</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D52" s="2">
+        <v>3</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53" t="s">
+        <v>109</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="72" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54" t="s">
+        <v>110</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55" t="s">
+        <v>49</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D55" s="2">
+        <v>3</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56" t="s">
+        <v>111</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57" t="s">
+        <v>112</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58" t="s">
+        <v>113</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59" t="s">
+        <v>114</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60" t="s">
+        <v>115</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61" t="s">
+        <v>39</v>
+      </c>
+      <c r="C61" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E15" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>45</v>
-      </c>
-      <c r="B16" t="s">
-        <v>46</v>
-      </c>
-      <c r="C16">
-        <v>3</v>
-      </c>
-      <c r="D16" t="s">
-        <v>40</v>
-      </c>
-      <c r="E16" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>47</v>
-      </c>
-      <c r="B17" t="s">
-        <v>48</v>
-      </c>
-      <c r="C17">
-        <v>3</v>
-      </c>
-      <c r="D17" t="s">
-        <v>49</v>
-      </c>
-      <c r="E17" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>51</v>
-      </c>
-      <c r="B18" t="s">
-        <v>52</v>
-      </c>
-      <c r="C18">
-        <v>3</v>
-      </c>
-      <c r="D18" t="s">
-        <v>49</v>
-      </c>
-      <c r="E18" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>54</v>
-      </c>
-      <c r="B19" t="s">
-        <v>55</v>
-      </c>
-      <c r="C19">
-        <v>3</v>
-      </c>
-      <c r="D19" t="s">
-        <v>56</v>
-      </c>
-      <c r="E19" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>58</v>
-      </c>
-      <c r="B20" t="s">
-        <v>59</v>
-      </c>
-      <c r="C20">
-        <v>3</v>
-      </c>
-      <c r="D20" t="s">
-        <v>56</v>
-      </c>
-      <c r="E20" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>60</v>
-      </c>
-      <c r="B21" t="s">
+      <c r="D61" s="2">
+        <v>3</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A62">
         <v>61</v>
       </c>
-      <c r="C21">
-        <v>3</v>
-      </c>
-      <c r="D21" t="s">
-        <v>56</v>
-      </c>
-      <c r="E21" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>62</v>
-      </c>
-      <c r="B22" t="s">
-        <v>63</v>
-      </c>
-      <c r="C22">
-        <v>3</v>
-      </c>
-      <c r="D22" t="s">
-        <v>56</v>
-      </c>
-      <c r="E22" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>64</v>
-      </c>
-      <c r="B23" t="s">
-        <v>65</v>
-      </c>
-      <c r="C23">
-        <v>3</v>
-      </c>
-      <c r="D23" t="s">
-        <v>56</v>
-      </c>
-      <c r="E23" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>67</v>
-      </c>
-      <c r="B24" t="s">
-        <v>68</v>
-      </c>
-      <c r="C24">
-        <v>3</v>
-      </c>
-      <c r="D24" t="s">
-        <v>56</v>
-      </c>
-      <c r="E24" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>69</v>
-      </c>
-      <c r="B25" t="s">
-        <v>70</v>
-      </c>
-      <c r="C25">
-        <v>3</v>
-      </c>
-      <c r="D25" t="s">
-        <v>71</v>
-      </c>
-      <c r="E25" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>73</v>
-      </c>
-      <c r="B26" t="s">
-        <v>74</v>
-      </c>
-      <c r="C26">
-        <v>3</v>
-      </c>
-      <c r="D26" t="s">
-        <v>71</v>
-      </c>
-      <c r="E26" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>76</v>
-      </c>
-      <c r="B27" t="s">
-        <v>77</v>
-      </c>
-      <c r="C27">
-        <v>3</v>
-      </c>
-      <c r="D27" t="s">
-        <v>78</v>
-      </c>
-      <c r="E27" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>80</v>
-      </c>
-      <c r="B28" t="s">
-        <v>81</v>
-      </c>
-      <c r="C28">
-        <v>3</v>
-      </c>
-      <c r="D28" t="s">
-        <v>78</v>
-      </c>
-      <c r="E28" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>82</v>
-      </c>
-      <c r="B29" t="s">
-        <v>83</v>
-      </c>
-      <c r="C29">
-        <v>3</v>
-      </c>
-      <c r="D29" t="s">
-        <v>78</v>
-      </c>
-      <c r="E29" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>84</v>
-      </c>
-      <c r="B30" t="s">
-        <v>85</v>
-      </c>
-      <c r="C30">
-        <v>3</v>
-      </c>
-      <c r="D30" t="s">
-        <v>78</v>
-      </c>
-      <c r="E30" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>86</v>
-      </c>
-      <c r="B31" t="s">
-        <v>87</v>
-      </c>
-      <c r="C31">
-        <v>3</v>
-      </c>
-      <c r="D31" t="s">
-        <v>88</v>
-      </c>
-      <c r="E31" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>90</v>
-      </c>
-      <c r="B32" t="s">
-        <v>91</v>
-      </c>
-      <c r="C32">
-        <v>3</v>
-      </c>
-      <c r="D32" t="s">
-        <v>88</v>
-      </c>
-      <c r="E32" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>92</v>
-      </c>
-      <c r="B33" t="s">
-        <v>93</v>
-      </c>
-      <c r="C33">
-        <v>3</v>
-      </c>
-      <c r="D33" t="s">
-        <v>88</v>
-      </c>
-      <c r="E33" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>94</v>
-      </c>
-      <c r="B34" t="s">
-        <v>95</v>
-      </c>
-      <c r="C34">
-        <v>3</v>
-      </c>
-      <c r="D34" t="s">
-        <v>88</v>
-      </c>
-      <c r="E34" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>96</v>
-      </c>
-      <c r="B35" t="s">
-        <v>97</v>
-      </c>
-      <c r="C35">
-        <v>3</v>
-      </c>
-      <c r="D35" t="s">
-        <v>88</v>
-      </c>
-      <c r="E35" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>98</v>
-      </c>
-      <c r="B36" t="s">
-        <v>99</v>
-      </c>
-      <c r="C36">
-        <v>3</v>
-      </c>
-      <c r="D36" t="s">
-        <v>100</v>
-      </c>
-      <c r="E36" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>102</v>
-      </c>
-      <c r="B37" t="s">
-        <v>103</v>
-      </c>
-      <c r="C37">
-        <v>3</v>
-      </c>
-      <c r="D37" t="s">
-        <v>100</v>
-      </c>
-      <c r="E37" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
-        <v>104</v>
-      </c>
-      <c r="B38" t="s">
-        <v>105</v>
-      </c>
-      <c r="C38">
-        <v>3</v>
-      </c>
-      <c r="D38" t="s">
-        <v>100</v>
-      </c>
-      <c r="E38" t="s">
-        <v>101</v>
+      <c r="B62" t="s">
+        <v>116</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="F62" s="4" t="s">
+        <v>199</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:F39" xr:uid="{20EFC16D-C538-4710-BECD-E4D68D9B85C1}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F45">
+      <sortCondition ref="A1:A39"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>